--- a/biology/Médecine/Médicométrie/Médicométrie.xlsx
+++ b/biology/Médecine/Médicométrie/Médicométrie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9dicom%C3%A9trie</t>
+          <t>Médicométrie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La médicométrie est un terme défini par les professeurs Jean Paelinck, Antoine Bailly et le Dr Michel Périat en 1983 afin de développer une vision globale de la santé. L'Académie française de médecine a ensuite réfléchi à ce terme : son rapporteur le professeur Jean-Charles Sournia écrit dans son rapport (lettre du 2 juin 1992) : "Le radical médico nous a paru très médical et donc lié au diagnostic et au traitement de maladies déclarées, c'est-à-dire à l'activité des médecins ou des établissements de soins. Si vous le comprenez ainsi, votre terme et l'usage que vous en faites sont cohérents avec l'étymologie : vous mesurez les phénomènes médicaux". L'académie propose également le terme "sanimétrie" qui serait l'équivalent de l'anglais "health studies", cette expression ne comportant pas l'idée de mesure.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9dicom%C3%A9trie</t>
+          <t>Médicométrie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Née de la rencontre de médecins (Dr M. Périat), de géographes (A. Bailly), d'économistes spatiaux (J. Paelinck), de responsables administratifs de la filière santé, la médicométrie a été créée pour favoriser une vision interdisciplinaire : cela veut dire que l'on considère simultanément plusieurs structures d'analyse, ou mieux, que la structure sur laquelle se base l'analyse médicométrique comporte en même temps plusieurs relations : sanitaires bien sûr, mais aussi économiques, sociales, politiques, spatiales, éthiques, temporelles et bien d'autres. Il s'agit ainsi d'analyser les coûts et bénéfices du système de santé dans une perspective globale, en tenant compte de tous les partenaires du système et de son impact dans le temps et dans l'espace des sociétés.
 La pratique de la médicométrie a permis de rectifier des raisonnements monodisciplinaires. Tel est le cas des analyses économiques qui souvent se limitent à une énumération comptable des "coûts" de la santé, alors que les activités médicales participent à la production, la consommation, l'investissement, l'exportation, l'importation, la recherche-développement pour ne citer que quelques facettes de leurs impacts économiques.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9dicom%C3%A9trie</t>
+          <t>Médicométrie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La médicométrie a tenu son premier colloque les 21 et 22 janvier 1983 aux Diablerets (Suisse) sous les auspices de l'Association de Science Régionale de Langue Française. 
 Ce premier colloqué, publié sous la direction de A.S. Bailly et M. Périat, réunissant 22 auteurs internationaux, a eu comme intitulé "Médicométrie régionale" car il abordait les problèmes de répartition spatiale des infrastructures et des personnels de santé. Vite épuisé, ce fascicule fut suivi d'un livre (Anthropos, Paris, 1984). Onze colloques internationaux seront ensuite organisés : 
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9dicom%C3%A9trie</t>
+          <t>Médicométrie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Les cinq principes de la médicométrie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cinq principes ont été présentés par J. Paelinck au premier colloque de médicométrie régionale (Bailly, Périat, 1984) :
 P1. À priori, les modèles de médicométrie sont à formuler de façon spatialement interdépendante. L'interdépendance est fondamentale, basée sur la mobilité spatiale des êtres humains ; la diffusion des épidémies en est un exemple classique. Mais de façon plus générale, il est admissible qu'il y ait une autocorrélation spatiale entre les indicateurs de santé ou de morbidité ; cela implique que dans la spécification de nos modèles, l'interdépendance devrait être centrale comme principe de formulation des relations.
